--- a/exports/statistics/analysis_cortisol_features_chronotype.xlsx
+++ b/exports/statistics/analysis_cortisol_features_chronotype.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>parameter</t>
   </si>
@@ -35,6 +35,9 @@
     <t>between</t>
   </si>
   <si>
+    <t>padjust</t>
+  </si>
+  <si>
     <t>biomarker</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t>cortisol</t>
   </si>
   <si>
+    <t>fdr_bh</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
@@ -62,13 +68,16 @@
     <t>cini</t>
   </si>
   <si>
+    <t>cmax</t>
+  </si>
+  <si>
     <t>max_inc</t>
   </si>
   <si>
-    <t>slope03</t>
-  </si>
-  <si>
-    <t>slope04</t>
+    <t>slopeS0S3</t>
+  </si>
+  <si>
+    <t>slopeS0S4</t>
   </si>
   <si>
     <t>Intermediate</t>
@@ -499,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -523,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -531,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -539,7 +548,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -549,330 +566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>0.984</v>
-      </c>
-      <c r="D3">
-        <v>0.21</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>0.917</v>
-      </c>
-      <c r="D4">
-        <v>0.006</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>0.965</v>
-      </c>
-      <c r="D5">
-        <v>0.83</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>0.969</v>
-      </c>
-      <c r="D6">
-        <v>0.012</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.028</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>0.919</v>
-      </c>
-      <c r="D8">
-        <v>0.313</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0.893</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>0.694</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>0.963</v>
-      </c>
-      <c r="D11">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>0.96</v>
-      </c>
-      <c r="D12">
-        <v>0.002</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>0.843</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>0.973</v>
-      </c>
-      <c r="D14">
-        <v>0.913</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>0.983</v>
-      </c>
-      <c r="D15">
-        <v>0.178</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>0.872</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>0.9379999999999999</v>
-      </c>
-      <c r="D17">
-        <v>0.495</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>0.975</v>
-      </c>
-      <c r="D18">
-        <v>0.041</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>0.866</v>
-      </c>
-      <c r="D20">
-        <v>0.068</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -885,65 +579,61 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>3.19</v>
+        <v>0.989</v>
       </c>
       <c r="D3">
-        <v>0.044</v>
+        <v>0.582</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>0.549</v>
+        <v>0.951</v>
       </c>
       <c r="D4">
-        <v>0.579</v>
+        <v>0.103</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C5">
-        <v>1.074</v>
+        <v>0.957</v>
       </c>
       <c r="D5">
-        <v>0.344</v>
+        <v>0.77</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -954,13 +644,388 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0.988</v>
+      </c>
+      <c r="D6">
+        <v>0.538</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.052</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C8">
+        <v>0.874</v>
+      </c>
+      <c r="D8">
+        <v>0.135</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0.952</v>
+      </c>
+      <c r="D9">
+        <v>0.002</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.046</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0.977</v>
+      </c>
+      <c r="D11">
+        <v>0.945</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0.983</v>
+      </c>
+      <c r="D12">
+        <v>0.258</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>0.928</v>
+      </c>
+      <c r="D13">
+        <v>0.02</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>0.918</v>
+      </c>
+      <c r="D14">
+        <v>0.375</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0.978</v>
+      </c>
+      <c r="D15">
+        <v>0.102</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>0.899</v>
+      </c>
+      <c r="D16">
+        <v>0.003</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>0.959</v>
+      </c>
+      <c r="D17">
+        <v>0.793</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>0.98</v>
+      </c>
+      <c r="D18">
+        <v>0.151</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>0.875</v>
+      </c>
+      <c r="D19">
+        <v>0.001</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>0.946</v>
+      </c>
+      <c r="D20">
+        <v>0.641</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0.979</v>
+      </c>
+      <c r="D21">
+        <v>0.126</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0.832</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0.919</v>
+      </c>
+      <c r="D23">
+        <v>0.382</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>2.237</v>
+      </c>
+      <c r="D3">
+        <v>0.111</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>0.149</v>
+      </c>
+      <c r="D4">
+        <v>0.862</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.445</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C6">
-        <v>0.053</v>
+        <v>1.799</v>
       </c>
       <c r="D6">
-        <v>0.949</v>
+        <v>0.169</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -968,16 +1033,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>0.055</v>
+        <v>0.339</v>
       </c>
       <c r="D7">
-        <v>0.946</v>
+        <v>0.713</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -985,18 +1050,35 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>0.061</v>
+        <v>0.371</v>
       </c>
       <c r="D8">
-        <v>0.9409999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0.966</v>
+      </c>
+      <c r="D9">
+        <v>0.383</v>
+      </c>
+      <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1007,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1015,187 +1097,213 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>25.653</v>
+        <v>20.435</v>
       </c>
       <c r="F3">
-        <v>0.739</v>
+        <v>1.224</v>
       </c>
       <c r="G3">
-        <v>0.488</v>
+        <v>0.315</v>
       </c>
       <c r="H3">
-        <v>0.011</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>28.209</v>
+        <v>21.056</v>
       </c>
       <c r="F4">
-        <v>1.206</v>
+        <v>1.356</v>
       </c>
       <c r="G4">
-        <v>0.314</v>
+        <v>0.279</v>
       </c>
       <c r="H4">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>30.913</v>
+        <v>23.626</v>
       </c>
       <c r="F5">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="G5">
-        <v>0.252</v>
+        <v>0.356</v>
       </c>
       <c r="H5">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>26.897</v>
+        <v>19.934</v>
       </c>
       <c r="F6">
-        <v>1.337</v>
+        <v>1.739</v>
       </c>
       <c r="G6">
-        <v>0.28</v>
+        <v>0.201</v>
       </c>
       <c r="H6">
-        <v>0.019</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>26.801</v>
+        <v>20.532</v>
       </c>
       <c r="F7">
-        <v>1.707</v>
+        <v>1.948</v>
       </c>
       <c r="G7">
-        <v>0.201</v>
+        <v>0.168</v>
       </c>
       <c r="H7">
-        <v>0.026</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>25.441</v>
+        <v>20.973</v>
       </c>
       <c r="F8">
-        <v>1.369</v>
+        <v>2.279</v>
       </c>
       <c r="G8">
-        <v>0.272</v>
+        <v>0.127</v>
       </c>
       <c r="H8">
-        <v>0.021</v>
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>20.459</v>
+      </c>
+      <c r="F9">
+        <v>2.631</v>
+      </c>
+      <c r="G9">
+        <v>0.096</v>
+      </c>
+      <c r="H9">
+        <v>0.039</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1213,75 +1321,75 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>686.122</v>
+        <v>630.436</v>
       </c>
       <c r="F3">
-        <v>752.984</v>
+        <v>720.932</v>
       </c>
       <c r="G3">
-        <v>-66.86199999999999</v>
+        <v>-90.496</v>
       </c>
       <c r="H3">
-        <v>57.594</v>
+        <v>52.984</v>
       </c>
       <c r="I3">
-        <v>-1.161</v>
+        <v>-1.708</v>
       </c>
       <c r="J3">
-        <v>0.48</v>
+        <v>0.206</v>
       </c>
       <c r="K3">
-        <v>-0.214</v>
+        <v>-0.329</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1290,31 +1398,31 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>686.122</v>
+        <v>630.436</v>
       </c>
       <c r="F4">
-        <v>678.643</v>
+        <v>651.634</v>
       </c>
       <c r="G4">
-        <v>7.479</v>
+        <v>-21.198</v>
       </c>
       <c r="H4">
-        <v>105.936</v>
+        <v>101.768</v>
       </c>
       <c r="I4">
-        <v>0.07099999999999999</v>
+        <v>-0.208</v>
       </c>
       <c r="J4">
         <v>0.9</v>
       </c>
       <c r="K4">
-        <v>0.024</v>
+        <v>-0.076</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1323,66 +1431,66 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>752.984</v>
+        <v>720.932</v>
       </c>
       <c r="F5">
-        <v>678.643</v>
+        <v>651.634</v>
       </c>
       <c r="G5">
-        <v>74.34099999999999</v>
+        <v>69.298</v>
       </c>
       <c r="H5">
-        <v>98.48</v>
+        <v>95.45399999999999</v>
       </c>
       <c r="I5">
-        <v>0.755</v>
+        <v>0.726</v>
       </c>
       <c r="J5">
-        <v>0.713</v>
+        <v>0.729</v>
       </c>
       <c r="K5">
-        <v>0.237</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>198.759</v>
+        <v>202.117</v>
       </c>
       <c r="F6">
-        <v>302.162</v>
+        <v>290.667</v>
       </c>
       <c r="G6">
-        <v>-103.403</v>
+        <v>-88.55</v>
       </c>
       <c r="H6">
-        <v>60.881</v>
+        <v>52.268</v>
       </c>
       <c r="I6">
-        <v>-1.698</v>
+        <v>-1.694</v>
       </c>
       <c r="J6">
-        <v>0.209</v>
+        <v>0.211</v>
       </c>
       <c r="K6">
-        <v>-0.313</v>
+        <v>-0.326</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1391,31 +1499,31 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>198.759</v>
+        <v>202.117</v>
       </c>
       <c r="F7">
-        <v>297.94</v>
+        <v>305.663</v>
       </c>
       <c r="G7">
-        <v>-99.181</v>
+        <v>-103.546</v>
       </c>
       <c r="H7">
-        <v>111.982</v>
+        <v>100.393</v>
       </c>
       <c r="I7">
-        <v>-0.886</v>
+        <v>-1.031</v>
       </c>
       <c r="J7">
-        <v>0.638</v>
+        <v>0.555</v>
       </c>
       <c r="K7">
-        <v>-0.297</v>
+        <v>-0.377</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1424,66 +1532,66 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>302.162</v>
+        <v>290.667</v>
       </c>
       <c r="F8">
-        <v>297.94</v>
+        <v>305.663</v>
       </c>
       <c r="G8">
-        <v>4.222</v>
+        <v>-14.996</v>
       </c>
       <c r="H8">
-        <v>104.101</v>
+        <v>94.164</v>
       </c>
       <c r="I8">
-        <v>0.041</v>
+        <v>-0.159</v>
       </c>
       <c r="J8">
         <v>0.9</v>
       </c>
       <c r="K8">
-        <v>0.013</v>
+        <v>-0.055</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>7.943</v>
+        <v>7.034</v>
       </c>
       <c r="F9">
-        <v>7.322</v>
+        <v>6.984</v>
       </c>
       <c r="G9">
-        <v>0.621</v>
+        <v>0.049</v>
       </c>
       <c r="H9">
-        <v>0.87</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="I9">
-        <v>0.714</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J9">
-        <v>0.736</v>
+        <v>0.9</v>
       </c>
       <c r="K9">
-        <v>0.131</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1492,31 +1600,31 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>7.943</v>
+        <v>7.034</v>
       </c>
       <c r="F10">
-        <v>6.015</v>
+        <v>5.662</v>
       </c>
       <c r="G10">
-        <v>1.928</v>
+        <v>1.371</v>
       </c>
       <c r="H10">
-        <v>1.601</v>
+        <v>1.328</v>
       </c>
       <c r="I10">
-        <v>1.204</v>
+        <v>1.033</v>
       </c>
       <c r="J10">
-        <v>0.454</v>
+        <v>0.554</v>
       </c>
       <c r="K10">
-        <v>0.404</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1525,66 +1633,66 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>7.322</v>
+        <v>6.984</v>
       </c>
       <c r="F11">
-        <v>6.015</v>
+        <v>5.662</v>
       </c>
       <c r="G11">
-        <v>1.307</v>
+        <v>1.322</v>
       </c>
       <c r="H11">
-        <v>1.488</v>
+        <v>1.245</v>
       </c>
       <c r="I11">
-        <v>0.878</v>
+        <v>1.062</v>
       </c>
       <c r="J11">
-        <v>0.642</v>
+        <v>0.538</v>
       </c>
       <c r="K11">
-        <v>0.276</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>6.56</v>
+        <v>13.411</v>
       </c>
       <c r="F12">
-        <v>9.093999999999999</v>
+        <v>15.978</v>
       </c>
       <c r="G12">
-        <v>-2.534</v>
+        <v>-2.567</v>
       </c>
       <c r="H12">
-        <v>1.468</v>
+        <v>1.219</v>
       </c>
       <c r="I12">
-        <v>-1.727</v>
+        <v>-2.105</v>
       </c>
       <c r="J12">
-        <v>0.199</v>
+        <v>0.092</v>
       </c>
       <c r="K12">
-        <v>-0.318</v>
+        <v>-0.405</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1593,31 +1701,31 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>6.56</v>
+        <v>13.411</v>
       </c>
       <c r="F13">
-        <v>8.608000000000001</v>
+        <v>14.661</v>
       </c>
       <c r="G13">
-        <v>-2.048</v>
+        <v>-1.25</v>
       </c>
       <c r="H13">
-        <v>2.7</v>
+        <v>2.342</v>
       </c>
       <c r="I13">
-        <v>-0.759</v>
+        <v>-0.534</v>
       </c>
       <c r="J13">
-        <v>0.711</v>
+        <v>0.839</v>
       </c>
       <c r="K13">
-        <v>-0.254</v>
+        <v>-0.195</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1626,66 +1734,66 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>9.093999999999999</v>
+        <v>15.978</v>
       </c>
       <c r="F14">
-        <v>8.608000000000001</v>
+        <v>14.661</v>
       </c>
       <c r="G14">
-        <v>0.486</v>
+        <v>1.317</v>
       </c>
       <c r="H14">
-        <v>2.51</v>
+        <v>2.197</v>
       </c>
       <c r="I14">
-        <v>0.194</v>
+        <v>0.6</v>
       </c>
       <c r="J14">
-        <v>0.9</v>
+        <v>0.802</v>
       </c>
       <c r="K14">
-        <v>0.061</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>0.081</v>
+        <v>6.193</v>
       </c>
       <c r="F15">
-        <v>0.148</v>
+        <v>8.776</v>
       </c>
       <c r="G15">
-        <v>-0.067</v>
+        <v>-2.583</v>
       </c>
       <c r="H15">
-        <v>0.033</v>
+        <v>1.289</v>
       </c>
       <c r="I15">
-        <v>-2.044</v>
+        <v>-2.004</v>
       </c>
       <c r="J15">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="K15">
-        <v>-0.376</v>
+        <v>-0.385</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1694,31 +1802,31 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>0.081</v>
+        <v>6.193</v>
       </c>
       <c r="F16">
-        <v>0.141</v>
+        <v>8.894</v>
       </c>
       <c r="G16">
-        <v>-0.061</v>
+        <v>-2.701</v>
       </c>
       <c r="H16">
-        <v>0.061</v>
+        <v>2.476</v>
       </c>
       <c r="I16">
-        <v>-1.004</v>
+        <v>-1.091</v>
       </c>
       <c r="J16">
-        <v>0.571</v>
+        <v>0.521</v>
       </c>
       <c r="K16">
-        <v>-0.337</v>
+        <v>-0.399</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1727,66 +1835,66 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>0.148</v>
+        <v>8.776</v>
       </c>
       <c r="F17">
-        <v>0.141</v>
+        <v>8.894</v>
       </c>
       <c r="G17">
-        <v>0.007</v>
+        <v>-0.119</v>
       </c>
       <c r="H17">
-        <v>0.056</v>
+        <v>2.322</v>
       </c>
       <c r="I17">
-        <v>0.116</v>
+        <v>-0.051</v>
       </c>
       <c r="J17">
         <v>0.9</v>
       </c>
       <c r="K17">
-        <v>0.036</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>0.039</v>
+        <v>0.082</v>
       </c>
       <c r="F18">
-        <v>0.081</v>
+        <v>0.143</v>
       </c>
       <c r="G18">
-        <v>-0.043</v>
+        <v>-0.061</v>
       </c>
       <c r="H18">
-        <v>0.024</v>
+        <v>0.03</v>
       </c>
       <c r="I18">
-        <v>-1.741</v>
+        <v>-2.074</v>
       </c>
       <c r="J18">
-        <v>0.193</v>
+        <v>0.099</v>
       </c>
       <c r="K18">
-        <v>-0.321</v>
+        <v>-0.399</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1795,31 +1903,31 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>0.039</v>
+        <v>0.082</v>
       </c>
       <c r="F19">
-        <v>0.093</v>
+        <v>0.161</v>
       </c>
       <c r="G19">
-        <v>-0.055</v>
+        <v>-0.079</v>
       </c>
       <c r="H19">
-        <v>0.045</v>
+        <v>0.057</v>
       </c>
       <c r="I19">
-        <v>-1.22</v>
+        <v>-1.387</v>
       </c>
       <c r="J19">
-        <v>0.445</v>
+        <v>0.351</v>
       </c>
       <c r="K19">
-        <v>-0.409</v>
+        <v>-0.507</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1828,41 +1936,143 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>0.081</v>
+        <v>0.143</v>
       </c>
       <c r="F20">
-        <v>0.093</v>
+        <v>0.161</v>
       </c>
       <c r="G20">
-        <v>-0.012</v>
+        <v>-0.017</v>
       </c>
       <c r="H20">
-        <v>0.042</v>
+        <v>0.053</v>
       </c>
       <c r="I20">
-        <v>-0.294</v>
+        <v>-0.328</v>
       </c>
       <c r="J20">
         <v>0.9</v>
       </c>
       <c r="K20">
-        <v>-0.092</v>
+        <v>-0.114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>0.034</v>
+      </c>
+      <c r="F21">
+        <v>0.081</v>
+      </c>
+      <c r="G21">
+        <v>-0.047</v>
+      </c>
+      <c r="H21">
+        <v>0.022</v>
+      </c>
+      <c r="I21">
+        <v>-2.078</v>
+      </c>
+      <c r="J21">
+        <v>0.098</v>
+      </c>
+      <c r="K21">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>0.034</v>
+      </c>
+      <c r="F22">
+        <v>0.115</v>
+      </c>
+      <c r="G22">
+        <v>-0.081</v>
+      </c>
+      <c r="H22">
+        <v>0.043</v>
+      </c>
+      <c r="I22">
+        <v>-1.874</v>
+      </c>
+      <c r="J22">
+        <v>0.15</v>
+      </c>
+      <c r="K22">
+        <v>-0.6850000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0.081</v>
+      </c>
+      <c r="F23">
+        <v>0.115</v>
+      </c>
+      <c r="G23">
+        <v>-0.034</v>
+      </c>
+      <c r="H23">
+        <v>0.04</v>
+      </c>
+      <c r="I23">
+        <v>-0.845</v>
+      </c>
+      <c r="J23">
+        <v>0.662</v>
+      </c>
+      <c r="K23">
+        <v>-0.292</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
